--- a/Estoque e registro.xlsx
+++ b/Estoque e registro.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="19440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estoque" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Registro" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -208,52 +208,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
+    <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
+    <cellStyle name="40% - Ênfase1" xfId="2" builtinId="31"/>
+    <cellStyle name="60% - Ênfase1" xfId="3" builtinId="32"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -656,25 +648,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17.85546875" customWidth="1" style="21" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="21" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="21" min="8" max="8"/>
-    <col width="10.7109375" customWidth="1" style="21" min="9" max="9"/>
+    <col width="17.85546875" customWidth="1" style="19" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" style="19" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="19" min="8" max="8"/>
+    <col width="10.7109375" customWidth="1" style="19" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>GERENCIAMENTO DE EQUIPAMENTOS DA TI</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="H1" s="23" t="n"/>
-      <c r="I1" s="23" t="n"/>
+      <c r="H1" s="17" t="n"/>
+      <c r="I1" s="17" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="20" t="inlineStr">
@@ -682,119 +674,119 @@
           <t>ITENS</t>
         </is>
       </c>
-      <c r="B2" s="24" t="n"/>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="B2" s="21" t="n"/>
+      <c r="C2" s="16" t="inlineStr">
         <is>
           <t>LEGENDA</t>
         </is>
       </c>
-      <c r="D2" s="23" t="n"/>
-      <c r="E2" s="23" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>TECLADOS</t>
         </is>
       </c>
-      <c r="B3" s="17" t="n">
+      <c r="B3" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="16" t="n"/>
-      <c r="D3" s="14" t="n"/>
-      <c r="E3" s="14" t="n"/>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="9" t="n"/>
+      <c r="E3" s="9" t="n"/>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>ESTOQUE EM ALTA</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n"/>
+      <c r="I3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>MOUSES</t>
         </is>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="C4" s="16" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="G4" s="10" t="n"/>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="9" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="G4" s="7" t="n"/>
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>ESTOQUE EM QUEDA</t>
         </is>
       </c>
-      <c r="I4" s="5" t="n"/>
+      <c r="I4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>H. KJ</t>
         </is>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="C5" s="16" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="14" t="n"/>
-      <c r="G5" s="11" t="n"/>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="G5" s="8" t="n"/>
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>SOLICITAR ESTOQUE</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n"/>
+      <c r="I5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>H. PnP</t>
         </is>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="n"/>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>CF AMERICANOS</t>
         </is>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>CF CHINÊS</t>
         </is>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="C8" s="16" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="14" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -813,60 +805,110 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" style="21" min="1" max="1"/>
-    <col width="13.7109375" customWidth="1" style="21" min="2" max="2"/>
-    <col width="18" customWidth="1" style="21" min="3" max="3"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" style="21" min="4" max="4"/>
-    <col width="14.7109375" customWidth="1" style="21" min="5" max="5"/>
+    <col width="16" customWidth="1" style="19" min="1" max="1"/>
+    <col width="19.42578125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="18" customWidth="1" style="19" min="3" max="3"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="19" min="4" max="4"/>
+    <col width="14.7109375" customWidth="1" style="19" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>REGISTRO DA MOVIMENTAÇÃO DE EQUIPAMENTOS DA TI</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>CHAMADO</t>
         </is>
       </c>
-      <c r="B2" s="22" t="inlineStr">
-        <is>
-          <t>ITEM</t>
-        </is>
-      </c>
-      <c r="C2" s="22" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTO</t>
+        </is>
+      </c>
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>QUANTIDADE</t>
         </is>
       </c>
-      <c r="D2" s="22" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>ADIÇÃO OU TROCA</t>
         </is>
       </c>
-      <c r="E2" s="22" t="inlineStr">
+      <c r="E2" s="14" t="inlineStr">
         <is>
           <t>DATA</t>
         </is>
       </c>
     </row>
-    <row r="3"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NULO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TECLADO</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15/5/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NULO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TECLADO</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="E4" s="15" t="inlineStr">
+        <is>
+          <t>15/5/2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Estoque e registro.xlsx
+++ b/Estoque e registro.xlsx
@@ -805,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -904,6 +904,31 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NULO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MOUSE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15/5/2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/Estoque e registro.xlsx
+++ b/Estoque e registro.xlsx
@@ -1,48 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo.araujo\Documents\Codes\Gerenciamento de planilhas-20240513T180445Z-001\Gerenciamento de planilhas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AEB53-5C5F-4B88-BB3E-35A610BEBF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estoque" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Registro" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Estoque" sheetId="1" r:id="rId1"/>
+    <sheet name="Registro" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>GERENCIAMENTO DE EQUIPAMENTOS DA TI</t>
+  </si>
+  <si>
+    <t>LEGENDA</t>
+  </si>
+  <si>
+    <t>ITENS</t>
+  </si>
+  <si>
+    <t>TECLADOS</t>
+  </si>
+  <si>
+    <t>ESTOQUE EM ALTA</t>
+  </si>
+  <si>
+    <t>MOUSES</t>
+  </si>
+  <si>
+    <t>ESTOQUE EM QUEDA</t>
+  </si>
+  <si>
+    <t>H. KJ</t>
+  </si>
+  <si>
+    <t>SOLICITAR ESTOQUE</t>
+  </si>
+  <si>
+    <t>H. PnP</t>
+  </si>
+  <si>
+    <t>REGISTRO DA MOVIMENTAÇÃO DE EQUIPAMENTOS DA TI</t>
+  </si>
+  <si>
+    <t>CHAMADO</t>
+  </si>
+  <si>
+    <t>EQUIPAMENTO</t>
+  </si>
+  <si>
+    <t>QUANTIDADE</t>
+  </si>
+  <si>
+    <t>ADIÇÃO OU TROCA</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,13 +112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -96,12 +154,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -192,130 +256,63 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
     <cellStyle name="40% - Ênfase1" xfId="2" builtinId="31"/>
     <cellStyle name="60% - Ênfase1" xfId="3" builtinId="32"/>
+    <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -635,158 +632,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="17.85546875" customWidth="1" style="19" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="19" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="19" min="8" max="8"/>
-    <col width="10.7109375" customWidth="1" style="19" min="9" max="9"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>GERENCIAMENTO DE EQUIPAMENTOS DA TI</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
       </c>
-      <c r="G1" s="22" t="inlineStr">
-        <is>
-          <t>LEGENDA</t>
-        </is>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="21" t="s">
+        <v>1</v>
       </c>
-      <c r="H1" s="17" t="n"/>
-      <c r="I1" s="17" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="20" t="inlineStr">
-        <is>
-          <t>ITENS</t>
-        </is>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="21" t="n"/>
-      <c r="C2" s="16" t="inlineStr">
-        <is>
-          <t>LEGENDA</t>
-        </is>
+      <c r="B2" s="20"/>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
       </c>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="n"/>
-      <c r="I2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>TECLADOS</t>
-        </is>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="12">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13">
+        <v>80</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13">
         <v>15</v>
       </c>
-      <c r="C3" s="11" t="n"/>
-      <c r="D3" s="9" t="n"/>
-      <c r="E3" s="9" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>ESTOQUE EM ALTA</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>MOUSES</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="n"/>
-      <c r="D4" s="9" t="n"/>
-      <c r="E4" s="9" t="n"/>
-      <c r="G4" s="7" t="n"/>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>ESTOQUE EM QUEDA</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>H. KJ</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11" t="n"/>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="9" t="n"/>
-      <c r="G5" s="8" t="n"/>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>SOLICITAR ESTOQUE</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>H. PnP</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="C6" s="11" t="n"/>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="9" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>CF AMERICANOS</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="n"/>
-      <c r="D7" s="9" t="n"/>
-      <c r="E7" s="9" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>CF CHINÊS</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="C8" s="11" t="n"/>
-      <c r="D8" s="9" t="n"/>
-      <c r="E8" s="9" t="n"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -800,140 +763,1257 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16" customWidth="1" style="19" min="1" max="1"/>
-    <col width="19.42578125" customWidth="1" style="19" min="2" max="2"/>
-    <col width="18" customWidth="1" style="19" min="3" max="3"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" style="19" min="4" max="4"/>
-    <col width="14.7109375" customWidth="1" style="19" min="5" max="5"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>REGISTRO DA MOVIMENTAÇÃO DE EQUIPAMENTOS DA TI</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="inlineStr">
-        <is>
-          <t>CHAMADO</t>
-        </is>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
       </c>
-      <c r="B2" s="14" t="inlineStr">
-        <is>
-          <t>EQUIPAMENTO</t>
-        </is>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
       </c>
-      <c r="C2" s="14" t="inlineStr">
-        <is>
-          <t>QUANTIDADE</t>
-        </is>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
       </c>
-      <c r="D2" s="14" t="inlineStr">
-        <is>
-          <t>ADIÇÃO OU TROCA</t>
-        </is>
+      <c r="D2" s="14" t="s">
+        <v>14</v>
       </c>
-      <c r="E2" s="14" t="inlineStr">
-        <is>
-          <t>DATA</t>
-        </is>
+      <c r="E2" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NULO</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TECLADO</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SAIDA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>15/5/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NULO</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TECLADO</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ENTRADA</t>
-        </is>
-      </c>
-      <c r="E4" s="15" t="inlineStr">
-        <is>
-          <t>15/5/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NULO</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MOUSE</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SAIDA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15/5/2024</t>
-        </is>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="22"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="22"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="22"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="22"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="22"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="22"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="22"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="22"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="22"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="22"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="22"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="22"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="22"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="22"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="22"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="22"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="22"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="22"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="22"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="22"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="22"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="22"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="22"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="22"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="22"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="22"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="22"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="22"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="22"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="22"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="22"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="22"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="22"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="22"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="22"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="22"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="22"/>
+      <c r="E168" s="22"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="22"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="22"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="22"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="22"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="22"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="22"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>